--- a/DatasetS1_platformdata.xlsx
+++ b/DatasetS1_platformdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/eltr1022_colorado_edu/Documents/LAC projects/LAC23 water chemistry story/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_B359F1C70B2B58FA78CC6706DD87377871043782" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D66C56-7B17-4D33-B3DA-907FDAC3CC63}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C1D7BF7B-4C92-4982-8016-D2A9665D6B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F1C66C4-BDEA-48A2-80C3-391F94D15280}"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="2400" windowWidth="19380" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="50" windowWidth="19380" windowHeight="11230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Measured; uncertainty</t>
+Measured; uncertainty +/1 0.016</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Measured; uncertainty</t>
+Measured; uncertainty +/- 0.01</t>
         </r>
       </text>
     </comment>
@@ -361,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -462,10 +462,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,10 +764,10 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" style="2" customWidth="1"/>
@@ -786,7 +782,7 @@
     <col min="15" max="15" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="29">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -833,24 +829,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>45135.38958333333</v>
       </c>
       <c r="B2" s="2">
-        <v>2.0800909601939335</v>
+        <v>2.0338407974848209</v>
       </c>
       <c r="C2" s="2">
-        <v>2.4050259496123108</v>
+        <v>2.3600883437978819</v>
       </c>
       <c r="D2">
         <v>8.07</v>
       </c>
       <c r="E2" s="4">
-        <v>388.00384747274359</v>
+        <v>370.35799919091608</v>
       </c>
       <c r="F2" s="3">
-        <v>3.7080862607185292</v>
+        <v>3.6914175389134769</v>
       </c>
       <c r="G2" s="2">
         <v>0.67413956619425797</v>
@@ -881,93 +877,93 @@
         <v>2.8840315031266059</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>45135.429861111108</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0494486120072479</v>
+        <v>2.0035823757907858</v>
       </c>
       <c r="C3" s="2">
-        <v>2.406723920760335</v>
+        <v>2.3620330161246237</v>
       </c>
       <c r="D3">
         <v>8.1199999999999992</v>
       </c>
       <c r="E3" s="4">
-        <v>336.29742581846222</v>
+        <v>320.87150126826737</v>
       </c>
       <c r="F3" s="3">
-        <v>4.0461067751506237</v>
+        <v>4.0262671558351242</v>
       </c>
       <c r="G3" s="2">
         <v>0.49666949846222103</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>45135.470833333333</v>
       </c>
       <c r="B4" s="2">
-        <v>2.0800677465594122</v>
+        <v>2.0355870570507597</v>
       </c>
       <c r="C4" s="2">
-        <v>2.4485371486509324</v>
+        <v>2.4054530177871514</v>
       </c>
       <c r="D4">
         <v>8.1300000000000008</v>
       </c>
       <c r="E4" s="4">
-        <v>332.62348199157282</v>
+        <v>317.67186282092086</v>
       </c>
       <c r="F4" s="3">
-        <v>4.1905082689843836</v>
+        <v>4.1739783476440717</v>
       </c>
       <c r="G4" s="2">
         <v>0.47184320840486599</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>45135.513194444444</v>
       </c>
       <c r="B5" s="2">
-        <v>2.0662902068664142</v>
+        <v>2.0198400438207869</v>
       </c>
       <c r="C5" s="2">
-        <v>2.4562066676288068</v>
+        <v>2.4107893939709251</v>
       </c>
       <c r="D5">
         <v>8.16</v>
       </c>
       <c r="E5" s="4">
-        <v>305.68270612127134</v>
+        <v>291.56580776806243</v>
       </c>
       <c r="F5" s="3">
-        <v>4.4216530869032153</v>
+        <v>4.3985348226982435</v>
       </c>
       <c r="G5" s="2">
         <v>0.49893483383480702</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>45135.554861111108</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0632321606351263</v>
+        <v>2.0116858729582625</v>
       </c>
       <c r="C6" s="2">
-        <v>2.4527490007341548</v>
+        <v>2.40154919158691</v>
       </c>
       <c r="D6">
         <v>8.16</v>
       </c>
       <c r="E6" s="4">
-        <v>305.23030507696609</v>
+        <v>290.38874554400962</v>
       </c>
       <c r="F6" s="3">
-        <v>4.4151091757364611</v>
+        <v>4.3807777707976392</v>
       </c>
       <c r="G6" s="2">
         <v>0.78685038203492597</v>
@@ -998,93 +994,93 @@
         <v>3.4673685045253171</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>45135.59652777778</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0327238294294157</v>
+        <v>1.9870422797232459</v>
       </c>
       <c r="C7" s="2">
-        <v>2.4340485895661308</v>
+        <v>2.3893575416644679</v>
       </c>
       <c r="D7">
         <v>8.18</v>
       </c>
       <c r="E7" s="4">
-        <v>285.42211309436323</v>
+        <v>272.21087417987479</v>
       </c>
       <c r="F7" s="3">
-        <v>4.526905342352344</v>
+        <v>4.5027404353219804</v>
       </c>
       <c r="G7" s="2">
         <v>1.06769550417002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>45135.638888888891</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0693456112390103</v>
+        <v>2.023890418155236</v>
       </c>
       <c r="C8" s="2">
-        <v>2.4518297435507481</v>
+        <v>2.4075740809948347</v>
       </c>
       <c r="D8">
         <v>8.15</v>
       </c>
       <c r="E8" s="4">
-        <v>314.19943133912318</v>
+        <v>299.86399371402103</v>
       </c>
       <c r="F8" s="3">
-        <v>4.3402944261165963</v>
+        <v>4.3201195280064235</v>
       </c>
       <c r="G8" s="2">
         <v>1.0755969908302101</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>45135.681944444441</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0694760839717325</v>
+        <v>2.0234476230916418</v>
       </c>
       <c r="C9" s="2">
-        <v>2.4217611619407089</v>
+        <v>2.3769593901266068</v>
       </c>
       <c r="D9">
         <v>8.11</v>
       </c>
       <c r="E9" s="4">
-        <v>348.44287599370364</v>
+        <v>332.52477504679723</v>
       </c>
       <c r="F9" s="3">
-        <v>4.0035511924405602</v>
+        <v>3.9846983543973171</v>
       </c>
       <c r="G9" s="2">
         <v>1.08920843411538</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>45135.723611111112</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0282736546205262</v>
+        <v>1.9818361200520676</v>
       </c>
       <c r="C10" s="2">
-        <v>2.4055050478329671</v>
+        <v>2.3600374872203536</v>
       </c>
       <c r="D10">
         <v>8.15</v>
       </c>
       <c r="E10" s="4">
-        <v>307.96326404864033</v>
+        <v>293.63313770080333</v>
       </c>
       <c r="F10" s="3">
-        <v>4.254149132931774</v>
+        <v>4.2303520223932969</v>
       </c>
       <c r="G10" s="2">
         <v>1.21218887203644</v>
@@ -1115,208 +1111,208 @@
         <v>3.5481338923357555</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>45135.76666666667</v>
       </c>
       <c r="B11" s="2">
-        <v>2.013157847257542</v>
+        <v>1.9672461478691718</v>
       </c>
       <c r="C11" s="2">
-        <v>2.4118141650111302</v>
+        <v>2.3668103992106215</v>
       </c>
       <c r="D11">
         <v>8.18</v>
       </c>
       <c r="E11" s="4">
-        <v>282.67478269196891</v>
+        <v>269.49894277692147</v>
       </c>
       <c r="F11" s="3">
-        <v>4.4833316173141089</v>
+        <v>4.4578813780830382</v>
       </c>
       <c r="G11" s="2">
         <v>1.16827490095969</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>45135.806944444441</v>
       </c>
       <c r="B12" s="2">
-        <v>2.0318240508470149</v>
+        <v>1.9868907346127394</v>
       </c>
       <c r="C12" s="2">
-        <v>2.4172365286443567</v>
+        <v>2.373451657169861</v>
       </c>
       <c r="D12">
         <v>8.16</v>
       </c>
       <c r="E12" s="4">
-        <v>300.58385417559737</v>
+        <v>286.80954403122149</v>
       </c>
       <c r="F12" s="3">
-        <v>4.3478989817681102</v>
+        <v>4.3267822676487366</v>
       </c>
       <c r="G12" s="2">
         <v>1.08067228609865</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>45135.847916666666</v>
       </c>
       <c r="B13" s="2">
-        <v>2.0501438617843921</v>
+        <v>2.0056183459567305</v>
       </c>
       <c r="C13" s="2">
-        <v>2.4225055688707182</v>
+        <v>2.3792768128807542</v>
       </c>
       <c r="D13">
         <v>8.14</v>
       </c>
       <c r="E13" s="4">
-        <v>319.4639467799247</v>
+        <v>304.98276448533858</v>
       </c>
       <c r="F13" s="3">
-        <v>4.2143989901197818</v>
+        <v>4.1961087850279339</v>
       </c>
       <c r="G13" s="2">
         <v>0.98010020045424495</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>45135.929861111108</v>
       </c>
       <c r="B14" s="2">
-        <v>2.117482080817692</v>
+        <v>2.0633090878759641</v>
       </c>
       <c r="C14" s="2">
-        <v>2.4394442676405377</v>
+        <v>2.3858381762595262</v>
       </c>
       <c r="D14">
         <v>8.06</v>
       </c>
       <c r="E14" s="4">
-        <v>405.1650744085332</v>
+        <v>385.43337269098805</v>
       </c>
       <c r="F14" s="3">
-        <v>3.6978202648223553</v>
+        <v>3.6687722916353174</v>
       </c>
       <c r="G14" s="2">
         <v>0.75323340898239499</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>45136.054166666669</v>
       </c>
       <c r="B15" s="2">
-        <v>2.1649966661980127</v>
+        <v>2.1208214479778897</v>
       </c>
       <c r="C15" s="2">
-        <v>2.4327170117062002</v>
+        <v>2.3903673981325935</v>
       </c>
       <c r="D15">
         <v>7.97</v>
       </c>
       <c r="E15" s="4">
-        <v>519.7049039803295</v>
+        <v>497.23010454955033</v>
       </c>
       <c r="F15" s="3">
-        <v>3.1337952020265685</v>
+        <v>3.127007025872353</v>
       </c>
       <c r="G15" s="2">
         <v>0.476201914656317</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>45136.098611111112</v>
       </c>
       <c r="B16" s="2">
-        <v>2.1585728284164536</v>
+        <v>2.1150969532407946</v>
       </c>
       <c r="C16" s="2">
-        <v>2.4445534616770956</v>
+        <v>2.402928996190103</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" s="4">
-        <v>480.65964515527764</v>
+        <v>459.93599154966313</v>
       </c>
       <c r="F16" s="3">
-        <v>3.3277558679811303</v>
+        <v>3.3209997128096314</v>
       </c>
       <c r="G16" s="2">
         <v>0.43585843191680901</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>45136.140972222223</v>
       </c>
       <c r="B17" s="2">
-        <v>2.1323001927368042</v>
+        <v>2.083796865264028</v>
       </c>
       <c r="C17" s="2">
-        <v>2.4353994649629103</v>
+        <v>2.3881675699769094</v>
       </c>
       <c r="D17">
         <v>8.0299999999999994</v>
       </c>
       <c r="E17" s="4">
-        <v>440.24388617978133</v>
+        <v>420.08411114863276</v>
       </c>
       <c r="F17" s="3">
-        <v>3.4995091219411352</v>
+        <v>3.4826328936772719</v>
       </c>
       <c r="G17" s="2">
         <v>0.38940201892871901</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>45136.181250000001</v>
       </c>
       <c r="B18" s="2">
-        <v>2.1164388402189434</v>
+        <v>2.0715631896546256</v>
       </c>
       <c r="C18" s="2">
-        <v>2.4114252945959791</v>
+        <v>2.3681631891673334</v>
       </c>
       <c r="D18">
         <v>8.02</v>
       </c>
       <c r="E18" s="4">
-        <v>448.14153587474493</v>
+        <v>428.3156557789647</v>
       </c>
       <c r="F18" s="3">
-        <v>3.4019583687540003</v>
+        <v>3.391059352352912</v>
       </c>
       <c r="G18" s="2">
         <v>0.50316649937236602</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>45136.222916666666</v>
       </c>
       <c r="B19" s="2">
-        <v>2.1273162375851142</v>
+        <v>2.079884129534737</v>
       </c>
       <c r="C19" s="2">
-        <v>2.4168491540102872</v>
+        <v>2.3708220570997387</v>
       </c>
       <c r="D19">
         <v>8.01</v>
       </c>
       <c r="E19" s="4">
-        <v>461.93769547577517</v>
+        <v>441.0287151919386</v>
       </c>
       <c r="F19" s="3">
-        <v>3.3488616015470409</v>
+        <v>3.3345582569987759</v>
       </c>
       <c r="G19" s="2">
         <v>0.45438239872191599</v>
@@ -1347,70 +1343,70 @@
         <v>2.7542287033381663</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>45136.263888888891</v>
       </c>
       <c r="B20" s="2">
-        <v>2.140448418793091</v>
+        <v>2.092536422638986</v>
       </c>
       <c r="C20" s="2">
-        <v>2.4184582176696798</v>
+        <v>2.371968328394674</v>
       </c>
       <c r="D20">
         <v>7.99</v>
       </c>
       <c r="E20" s="4">
-        <v>488.73496053365091</v>
+        <v>466.61350982944811</v>
       </c>
       <c r="F20" s="3">
-        <v>3.2313738254439555</v>
+        <v>3.2175755333480578</v>
       </c>
       <c r="G20" s="2">
         <v>0.30258590545439601</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>45136.306250000001</v>
       </c>
       <c r="B21" s="2">
-        <v>2.1400057221194855</v>
+        <v>2.0921117526580923</v>
       </c>
       <c r="C21" s="2">
-        <v>2.4179762610699052</v>
+        <v>2.3715051761295136</v>
       </c>
       <c r="D21">
         <v>7.99</v>
       </c>
       <c r="E21" s="4">
-        <v>488.63387828406087</v>
+        <v>466.51881291131559</v>
       </c>
       <c r="F21" s="3">
-        <v>3.2307054989236157</v>
+        <v>3.2169225422098928</v>
       </c>
       <c r="G21" s="2">
         <v>0.299186731981262</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>45136.347916666666</v>
       </c>
       <c r="B22" s="2">
-        <v>2.0746869932348759</v>
+        <v>2.0272081145517102</v>
       </c>
       <c r="C22" s="2">
-        <v>2.4131008233649212</v>
+        <v>2.3667396885726157</v>
       </c>
       <c r="D22">
         <v>8.09</v>
       </c>
       <c r="E22" s="4">
-        <v>367.71848658446947</v>
+        <v>350.72592952355762</v>
       </c>
       <c r="F22" s="3">
-        <v>3.8532683958021745</v>
+        <v>3.8330043932150146</v>
       </c>
       <c r="G22" s="2">
         <v>0.38636211100803802</v>
